--- a/Daily data codeshare_241101a.xlsx
+++ b/Daily data codeshare_241101a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6A27E4-B620-4493-8834-337E03CA180D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFE7AEE-698A-42D8-AC40-5156B91C46E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
@@ -4516,7 +4516,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I14" sqref="I14:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4630,6 +4630,18 @@
       <c r="A7" s="1">
         <v>45602</v>
       </c>
+      <c r="B7">
+        <v>155</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>140</v>
+      </c>
       <c r="I7" t="s">
         <v>1</v>
       </c>
@@ -4644,62 +4656,182 @@
       <c r="A8" s="1">
         <v>45603</v>
       </c>
+      <c r="B8">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>148</v>
+      </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>998</v>
+        <v>2784</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>95</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45604</v>
       </c>
+      <c r="B9">
+        <v>222</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>202</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45605</v>
       </c>
+      <c r="B10">
+        <v>145</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45606</v>
       </c>
+      <c r="B11">
+        <v>182</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>164</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45607</v>
       </c>
+      <c r="B12">
+        <v>201</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>181</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45608</v>
       </c>
+      <c r="B13">
+        <v>133</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>117</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45609</v>
       </c>
+      <c r="B14">
+        <v>98</v>
+      </c>
+      <c r="C14">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45610</v>
       </c>
+      <c r="B15">
+        <v>161</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>147</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45611</v>
       </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>183</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45612</v>
+      </c>
+      <c r="B17">
+        <v>129</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">

--- a/Daily data codeshare_241101a.xlsx
+++ b/Daily data codeshare_241101a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFE7AEE-698A-42D8-AC40-5156B91C46E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC1D720-0366-47A7-A4DD-1B0AC3CDA0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{40B04361-33FA-49C5-9A9E-2D7704FB1280}"/>
   </bookViews>
   <sheets>
     <sheet name="April" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3362,8 +3373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7D0696-FC93-4D6D-8347-D677506C685C}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,7 +3404,7 @@
         <v>45536</v>
       </c>
       <c r="B2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C2">
         <v>39</v>
@@ -3402,7 +3413,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3410,16 +3421,16 @@
         <v>45537</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3427,67 +3438,67 @@
         <v>45538</v>
       </c>
       <c r="B4">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C4">
         <v>22</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45539</v>
       </c>
-      <c r="B5">
-        <v>259</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2">
+        <v>243</v>
+      </c>
+      <c r="C5" s="2">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>223</v>
+      <c r="E5" s="2">
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45540</v>
       </c>
-      <c r="B6">
-        <v>221</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2">
+        <v>212</v>
+      </c>
+      <c r="C6" s="2">
         <v>50</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>166</v>
+      <c r="E6" s="2">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45541</v>
       </c>
-      <c r="B7">
-        <v>246</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2">
+        <v>232</v>
+      </c>
+      <c r="C7" s="2">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>214</v>
+      <c r="E7" s="2">
+        <v>200</v>
       </c>
       <c r="I7" t="s">
         <v>1</v>
@@ -3503,436 +3514,441 @@
       <c r="A8" s="1">
         <v>45542</v>
       </c>
-      <c r="B8">
-        <v>205</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="2">
+        <v>191</v>
+      </c>
+      <c r="C8" s="2">
         <v>27</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>173</v>
+      <c r="E8" s="2">
+        <v>159</v>
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>7415</v>
+        <v>7028</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45543</v>
       </c>
-      <c r="B9">
-        <v>258</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2">
+        <v>241</v>
+      </c>
+      <c r="C9" s="2">
         <v>33</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>6</v>
       </c>
-      <c r="E9">
-        <v>219</v>
+      <c r="E9" s="2">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45544</v>
       </c>
-      <c r="B10">
-        <v>275</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2">
+        <v>263</v>
+      </c>
+      <c r="C10" s="2">
         <v>38</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>234</v>
+      <c r="E10" s="2">
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45545</v>
       </c>
-      <c r="B11">
-        <v>246</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2">
+        <v>229</v>
+      </c>
+      <c r="C11" s="2">
         <v>42</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>203</v>
+      <c r="E11" s="2">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45546</v>
       </c>
-      <c r="B12">
-        <v>263</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="2">
+        <v>251</v>
+      </c>
+      <c r="C12" s="2">
         <v>43</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="E12">
-        <v>216</v>
+      <c r="E12" s="2">
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45547</v>
       </c>
-      <c r="B13">
-        <v>276</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="2">
+        <v>263</v>
+      </c>
+      <c r="C13" s="2">
         <v>46</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="E13">
-        <v>224</v>
+      <c r="E13" s="2">
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45548</v>
       </c>
-      <c r="B14">
-        <v>263</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2">
+        <v>250</v>
+      </c>
+      <c r="C14" s="2">
         <v>33</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>7</v>
       </c>
-      <c r="E14">
-        <v>223</v>
+      <c r="E14" s="2">
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45549</v>
       </c>
-      <c r="B15">
-        <v>244</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="2">
+        <v>234</v>
+      </c>
+      <c r="C15" s="2">
         <v>34</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>4</v>
       </c>
-      <c r="E15">
-        <v>206</v>
+      <c r="E15" s="2">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45550</v>
       </c>
-      <c r="B16">
-        <v>272</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="2">
+        <v>257</v>
+      </c>
+      <c r="C16" s="2">
         <v>28</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="E16">
-        <v>239</v>
+      <c r="E16" s="2">
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45551</v>
       </c>
-      <c r="B17">
-        <v>275</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="2">
+        <v>261</v>
+      </c>
+      <c r="C17" s="2">
         <v>40</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>4</v>
       </c>
-      <c r="E17">
-        <v>231</v>
+      <c r="E17" s="2">
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45552</v>
       </c>
-      <c r="B18">
-        <v>253</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="2">
+        <v>243</v>
+      </c>
+      <c r="C18" s="2">
         <v>39</v>
       </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>210</v>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45553</v>
       </c>
-      <c r="B19">
-        <v>264</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="2">
+        <v>254</v>
+      </c>
+      <c r="C19" s="2">
         <v>40</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>5</v>
       </c>
-      <c r="E19">
-        <v>219</v>
+      <c r="E19" s="2">
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45554</v>
       </c>
-      <c r="B20">
-        <v>253</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="2">
+        <v>242</v>
+      </c>
+      <c r="C20" s="2">
         <v>33</v>
       </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>219</v>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45555</v>
       </c>
-      <c r="B21">
-        <v>261</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="2">
+        <v>248</v>
+      </c>
+      <c r="C21" s="2">
         <v>21</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>11</v>
       </c>
-      <c r="E21">
-        <v>229</v>
+      <c r="E21" s="2">
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45556</v>
       </c>
-      <c r="B22">
-        <v>233</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="2">
+        <v>222</v>
+      </c>
+      <c r="C22" s="2">
         <v>37</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>8</v>
       </c>
-      <c r="E22">
-        <v>188</v>
+      <c r="E22" s="2">
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45557</v>
       </c>
-      <c r="B23">
-        <v>257</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="2">
+        <v>237</v>
+      </c>
+      <c r="C23" s="2">
         <v>41</v>
       </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>210</v>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45558</v>
       </c>
-      <c r="B24">
-        <v>250</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="2">
+        <v>233</v>
+      </c>
+      <c r="C24" s="2">
         <v>32</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>2</v>
       </c>
-      <c r="E24">
-        <v>216</v>
+      <c r="E24" s="2">
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45559</v>
       </c>
-      <c r="B25">
-        <v>266</v>
-      </c>
-      <c r="C25">
-        <v>41</v>
-      </c>
-      <c r="D25">
+      <c r="B25" s="2">
+        <v>244</v>
+      </c>
+      <c r="C25" s="2">
+        <v>39</v>
+      </c>
+      <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>224</v>
+      <c r="E25" s="2">
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45560</v>
       </c>
-      <c r="B26">
-        <v>262</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="2">
+        <v>247</v>
+      </c>
+      <c r="C26" s="2">
         <v>36</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>7</v>
       </c>
-      <c r="E26">
-        <v>219</v>
+      <c r="E26" s="2">
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45561</v>
       </c>
-      <c r="B27">
-        <v>237</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="2">
+        <v>224</v>
+      </c>
+      <c r="C27" s="2">
         <v>26</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>8</v>
       </c>
-      <c r="E27">
-        <v>203</v>
+      <c r="E27" s="2">
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45562</v>
       </c>
-      <c r="B28">
-        <v>264</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="2">
+        <v>256</v>
+      </c>
+      <c r="C28" s="2">
         <v>34</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>7</v>
       </c>
-      <c r="E28">
-        <v>223</v>
+      <c r="E28" s="2">
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45563</v>
       </c>
-      <c r="B29">
-        <v>233</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="2">
+        <v>222</v>
+      </c>
+      <c r="C29" s="2">
         <v>28</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>6</v>
       </c>
-      <c r="E29">
-        <v>199</v>
+      <c r="E29" s="2">
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45564</v>
       </c>
-      <c r="B30">
-        <v>284</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="2">
+        <v>267</v>
+      </c>
+      <c r="C30" s="2">
         <v>46</v>
       </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-      <c r="E30">
-        <v>230</v>
+      <c r="D30" s="2">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2">
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45565</v>
       </c>
-      <c r="B31">
-        <v>276</v>
-      </c>
-      <c r="C31">
-        <v>37</v>
-      </c>
-      <c r="D31">
+      <c r="B31" s="2">
+        <v>256</v>
+      </c>
+      <c r="C31" s="2">
+        <v>34</v>
+      </c>
+      <c r="D31" s="2">
         <v>3</v>
       </c>
-      <c r="E31">
-        <v>236</v>
+      <c r="E31" s="2">
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H12:H16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$G$14</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5ABFF6-2DDD-4EAA-89BA-17F0F9C1330F}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3961,102 +3977,102 @@
       <c r="A2" s="1">
         <v>45566</v>
       </c>
-      <c r="B2">
-        <v>261</v>
-      </c>
-      <c r="C2">
-        <v>41</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="2">
+        <v>245</v>
+      </c>
+      <c r="C2" s="2">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>218</v>
+      <c r="E2" s="2">
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45567</v>
       </c>
-      <c r="B3">
-        <v>247</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2">
+        <v>233</v>
+      </c>
+      <c r="C3" s="2">
         <v>28</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>218</v>
+      <c r="E3" s="2">
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45568</v>
       </c>
-      <c r="B4">
-        <v>249</v>
-      </c>
-      <c r="C4">
-        <v>36</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="2">
+        <v>228</v>
+      </c>
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>210</v>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45569</v>
       </c>
-      <c r="B5">
-        <v>271</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2">
+        <v>255</v>
+      </c>
+      <c r="C5" s="2">
         <v>34</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>232</v>
+      <c r="E5" s="2">
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45570</v>
       </c>
-      <c r="B6">
-        <v>224</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2">
+        <v>210</v>
+      </c>
+      <c r="C6" s="2">
         <v>32</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>187</v>
+      <c r="E6" s="2">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45571</v>
       </c>
-      <c r="B7">
-        <v>269</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2">
+        <v>256</v>
+      </c>
+      <c r="C7" s="2">
         <v>33</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>7</v>
       </c>
-      <c r="E7">
-        <v>229</v>
+      <c r="E7" s="2">
+        <v>216</v>
       </c>
       <c r="I7" t="s">
         <v>1</v>
@@ -4072,406 +4088,407 @@
       <c r="A8" s="1">
         <v>45572</v>
       </c>
-      <c r="B8">
-        <v>259</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="2">
+        <v>245</v>
+      </c>
+      <c r="C8" s="2">
         <v>32</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>221</v>
+      <c r="E8" s="2">
+        <v>207</v>
       </c>
       <c r="I8">
         <f>SUM(B2,B3:B32)</f>
-        <v>7607</v>
+        <v>7211</v>
       </c>
       <c r="J8">
         <f>SUM(C2,C3:C32)</f>
-        <v>920</v>
+        <v>891</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="0">SUM(D2,D3:D32)</f>
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45573</v>
       </c>
-      <c r="B9">
-        <v>237</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2">
+        <v>219</v>
+      </c>
+      <c r="C9" s="2">
         <v>38</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>194</v>
+      <c r="E9" s="2">
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45574</v>
       </c>
-      <c r="B10">
-        <v>247</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2">
+        <v>229</v>
+      </c>
+      <c r="C10" s="2">
         <v>28</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>214</v>
+      <c r="E10" s="2">
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45575</v>
       </c>
-      <c r="B11">
-        <v>255</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2">
+        <v>239</v>
+      </c>
+      <c r="C11" s="2">
         <v>36</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>216</v>
+      <c r="E11" s="2">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45576</v>
       </c>
-      <c r="B12">
-        <v>253</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="2">
+        <v>240</v>
+      </c>
+      <c r="C12" s="2">
         <v>33</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="E12">
-        <v>216</v>
-      </c>
+      <c r="E12" s="2">
+        <v>203</v>
+      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45577</v>
       </c>
-      <c r="B13">
-        <v>230</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="2">
+        <v>209</v>
+      </c>
+      <c r="C13" s="2">
         <v>31</v>
       </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>194</v>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45578</v>
       </c>
-      <c r="B14">
-        <v>261</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2">
+        <v>251</v>
+      </c>
+      <c r="C14" s="2">
         <v>30</v>
       </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>221</v>
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2">
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45579</v>
       </c>
-      <c r="B15">
-        <v>256</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="2">
+        <v>246</v>
+      </c>
+      <c r="C15" s="2">
         <v>34</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>9</v>
       </c>
-      <c r="E15">
-        <v>213</v>
+      <c r="E15" s="2">
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45580</v>
       </c>
-      <c r="B16">
-        <v>253</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="2">
+        <v>239</v>
+      </c>
+      <c r="C16" s="2">
         <v>37</v>
       </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45581</v>
       </c>
-      <c r="B17">
-        <v>247</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="2">
+        <v>235</v>
+      </c>
+      <c r="C17" s="2">
         <v>32</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>4</v>
       </c>
-      <c r="E17">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45582</v>
       </c>
-      <c r="B18">
-        <v>261</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="2">
+        <v>243</v>
+      </c>
+      <c r="C18" s="2">
         <v>30</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>9</v>
       </c>
-      <c r="E18">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45583</v>
       </c>
-      <c r="B19">
-        <v>267</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="2">
+        <v>254</v>
+      </c>
+      <c r="C19" s="2">
         <v>40</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>2</v>
       </c>
-      <c r="E19">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45584</v>
       </c>
-      <c r="B20">
-        <v>240</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="2">
+        <v>226</v>
+      </c>
+      <c r="C20" s="2">
         <v>38</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>5</v>
       </c>
-      <c r="E20">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45585</v>
       </c>
-      <c r="B21">
-        <v>233</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="2">
+        <v>228</v>
+      </c>
+      <c r="C21" s="2">
         <v>45</v>
       </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45586</v>
       </c>
-      <c r="B22">
-        <v>265</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="2">
+        <v>250</v>
+      </c>
+      <c r="C22" s="2">
         <v>31</v>
       </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45587</v>
       </c>
-      <c r="B23">
-        <v>234</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="2">
+        <v>222</v>
+      </c>
+      <c r="C23" s="2">
         <v>18</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>7</v>
       </c>
-      <c r="E23">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45588</v>
       </c>
-      <c r="B24">
-        <v>229</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="2">
+        <v>220</v>
+      </c>
+      <c r="C24" s="2">
         <v>35</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>8</v>
       </c>
-      <c r="E24">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45589</v>
       </c>
-      <c r="B25">
-        <v>250</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="2">
+        <v>233</v>
+      </c>
+      <c r="C25" s="2">
         <v>27</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>7</v>
       </c>
-      <c r="E25">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45590</v>
       </c>
-      <c r="B26">
-        <v>266</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="2">
+        <v>252</v>
+      </c>
+      <c r="C26" s="2">
         <v>29</v>
       </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="2">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45591</v>
       </c>
-      <c r="B27">
-        <v>215</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="2">
+        <v>203</v>
+      </c>
+      <c r="C27" s="2">
         <v>34</v>
       </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45592</v>
       </c>
-      <c r="B28">
-        <v>246</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="2">
+        <v>230</v>
+      </c>
+      <c r="C28" s="2">
         <v>13</v>
       </c>
-      <c r="D28">
-        <v>30</v>
-      </c>
-      <c r="E28">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="2">
+        <v>28</v>
+      </c>
+      <c r="E28" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45593</v>
       </c>
-      <c r="B29">
-        <v>252</v>
-      </c>
-      <c r="C29">
-        <v>14</v>
-      </c>
-      <c r="D29">
+      <c r="B29" s="2">
+        <v>246</v>
+      </c>
+      <c r="C29" s="2">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2">
         <v>21</v>
       </c>
-      <c r="E29">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45594</v>
       </c>
-      <c r="B30">
-        <v>207</v>
-      </c>
-      <c r="C30">
-        <v>13</v>
-      </c>
-      <c r="D30">
-        <v>25</v>
-      </c>
-      <c r="E30">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>202</v>
+      </c>
+      <c r="C30" s="2">
+        <v>15</v>
+      </c>
+      <c r="D30" s="2">
+        <v>24</v>
+      </c>
+      <c r="E30" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45595</v>
       </c>
@@ -4487,8 +4504,12 @@
       <c r="E31" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <f>466/175</f>
+        <v>2.6628571428571428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45596</v>
       </c>
@@ -4515,7 +4536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6B8887-ACC5-4D9E-AF18-ED7082FEB7D6}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I14" sqref="I14:I18"/>
     </sheetView>
   </sheetViews>
